--- a/Documentation/Data_Dictionary(Bike-Rental DBMS).xlsx
+++ b/Documentation/Data_Dictionary(Bike-Rental DBMS).xlsx
@@ -3,18 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19B4CC3-B73F-4992-B605-4AD650DFC409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEA10FD-0165-4ADD-A67C-D4C80E055771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data-dictionary" sheetId="20" r:id="rId1"/>
-    <sheet name="Getting Started" sheetId="21" r:id="rId2"/>
-    <sheet name="Understanding Diagram Data" sheetId="11" r:id="rId3"/>
-    <sheet name="Shape Notation Mapping" sheetId="13" state="hidden" r:id="rId4"/>
+    <sheet name="Shape Notation Mapping" sheetId="13" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ShapeNotation" localSheetId="3">'Shape Notation Mapping'!$A$2:$A$16</definedName>
+    <definedName name="ShapeNotation" localSheetId="1">'Shape Notation Mapping'!$A$2:$A$16</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,62 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="171">
-  <si>
-    <t>Organization Chart - Data Visualizer Add-in</t>
-  </si>
-  <si>
-    <t>Three easy steps to create Organizational Charts from your data.</t>
-  </si>
-  <si>
-    <t>Step 1</t>
-  </si>
-  <si>
-    <t>Step 2</t>
-  </si>
-  <si>
-    <t>Step 3</t>
-  </si>
-  <si>
-    <t>Organization Chart - Data Visualizer Addin</t>
-  </si>
-  <si>
-    <t>Learn how to use the data columns in this Organization Chart sample.</t>
-  </si>
-  <si>
-    <t>Employee ID</t>
-  </si>
-  <si>
-    <t>The values in this column should uniquely identify the Employee. For example 1,2,3… or S100, S101, D501, D502 etc. 
-This is a mandatory field.</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Name of the employee.</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Title of the employee in the organization. Employee ID of the person this individual reports to.
-For example, the sample data says “ID1” in the Manager ID field for the two individuals who report directly to the Executive.</t>
-  </si>
-  <si>
-    <t>Manager ID</t>
-  </si>
-  <si>
-    <t>Employee ID of the person this individual reports to.
-For example, the sample data says “ID1” in the Manager ID field for the two individuals who report directly to the Executive.</t>
-  </si>
-  <si>
-    <t>Role Type</t>
-  </si>
-  <si>
-    <t>Add keywords for role type in this column. This column contains a list of pre-defined colors in Visio.  
-Recommended: Select a role type value from the available values in the dropdown list.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="149">
   <si>
     <t>ShapeNotation</t>
   </si>
@@ -142,35 +85,6 @@
     <t>Custom 4</t>
   </si>
   <si>
-    <t>Learn More</t>
-  </si>
-  <si>
-    <t>Understanding Diagram Data&gt;</t>
-  </si>
-  <si>
-    <t>The ability to generate a Visio diagram from data is available to all Microsoft 365 subscribers with an Microsoft 365 work or school account.
-•	To create and update the diagram (in Excel), no Visio subscription is required.
-•	To edit the diagram (in Visio), a Visio Plan 1 or Plan 2 subscription is required.</t>
-  </si>
-  <si>
-    <t>To get started, sign in with your Microsoft 365 work or school account. If you are using personal accounts (hotmail.com, outlook.com etc.) you can continue without signing in to a limited experience. For richer experience we suggest using work or school account.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select the Organization Chart category and the layout you prefer. </t>
-  </si>
-  <si>
-    <t>Pick the Type of Chart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Started                                    </t>
-  </si>
-  <si>
-    <t>Update existing table rows or add new ones. Select “Refresh” to see how it changes the diagram. Select “Open in Web” or “Edit” to do more with the diagram in Visio.</t>
-  </si>
-  <si>
-    <t>Change the Data to Customize Your Diagram</t>
-  </si>
-  <si>
     <t>Field_Name</t>
   </si>
   <si>
@@ -492,9 +406,6 @@
     <t>The current location of the bike, referencing the location entity with a Foreign key linking to the Location table.</t>
   </si>
   <si>
-    <t>End_Location</t>
-  </si>
-  <si>
     <t>DECIMAL(10, 2)</t>
   </si>
   <si>
@@ -510,18 +421,9 @@
     <t>The total calculated cost of the rental.</t>
   </si>
   <si>
-    <t>The location where the bike was returned, with a foreign key linking to the location table.</t>
-  </si>
-  <si>
     <t>Payment_Status</t>
   </si>
   <si>
-    <t>ENUM ("Pending")</t>
-  </si>
-  <si>
-    <t>The status of the payment (e.g., "Paid," "Pending," "Failed")</t>
-  </si>
-  <si>
     <t>FK, INT</t>
   </si>
   <si>
@@ -553,13 +455,37 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>Start_Location_ID</t>
+  </si>
+  <si>
+    <t>The location where the rental started.</t>
+  </si>
+  <si>
+    <t>End_Location_ID</t>
+  </si>
+  <si>
+    <t>The location where the rental Ended.</t>
+  </si>
+  <si>
+    <t>ENUM ("Pending", "Paid", Failed")</t>
+  </si>
+  <si>
+    <t>Indicates whether the payment is completed, still pending or failed. (e.g., "Paid," "Pending," "Failed")</t>
+  </si>
+  <si>
+    <t>Rental_Status</t>
+  </si>
+  <si>
+    <t>Tracks the life cycle state of a rental, separate from the payment status.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="25">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,105 +533,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF217346"/>
-      <name val="Segoe UI Semibold"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF0E5C2F"/>
-      <name val="Segoe UI Semibold"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333A3E"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.249977111117893"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333A3E"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="0"/>
-      <name val="Segoe UI Semibold"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF777777"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="26"/>
-      <color theme="0"/>
-      <name val="Segoe UI Semibold"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="28"/>
-      <color rgb="FF3652A0"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF3652A0"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF3652A0"/>
-      <name val="Segoe UI Semibold"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF1E62C3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF335B74"/>
       <name val="Calibri"/>
@@ -722,7 +549,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,30 +565,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF3652A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1F63C1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF227346"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,7 +671,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyProtection="0">
@@ -886,9 +689,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" applyBorder="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -896,105 +698,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="4">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="4" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="4" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Header_LineFill" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="MetaData_Columns" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="ProcessMap_Columns" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
@@ -1436,316 +1150,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>79718</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1270510" cy="665098"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Microsoft Visio logo" descr="Microsoft Visio logo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B5E05C-2111-6A40-862B-4D0CC9B6F07D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="270218"/>
-          <a:ext cx="1270510" cy="665098"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>473075</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>17520</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="16402050" cy="2843022"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Excel opening start screen shot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6264C83A-118A-8546-9C12-F817E54DCE7B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A9B5E05C-2111-6A40-862B-4D0CC9B6F07D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="473075" y="1284345"/>
-          <a:ext cx="16402050" cy="2843022"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>343936</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>74652</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419309</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>192761</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Navigation Shape" descr="Select to get started" title="Navigation shape">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Select to get started"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6154186" y="8094702"/>
-          <a:ext cx="1742248" cy="370522"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="3652A0"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:spcAft>
-              <a:spcPts val="600"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Let's get started &gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" kern="1200">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1207010</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>227291</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Microsoft Visio logo" descr="Microsoft Visio logo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F267431B-E3D5-4181-83ED-6C3B3CC9D584}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="165100"/>
-          <a:ext cx="1207010" cy="663854"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>709613</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152899</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Table screen shot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB460C90-1264-458D-BED6-EE68BC9C571A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6153150" y="1566863"/>
-          <a:ext cx="7186613" cy="2896098"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>200026</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>128052</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="Workflow screen shot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D90C6F-0A81-4E78-82A9-1D61AFC62DC3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6124574" y="4510089"/>
-          <a:ext cx="7267575" cy="3766601"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3071,10 +2475,10 @@
   <sheetPr>
     <tabColor rgb="FF3652A0"/>
   </sheetPr>
-  <dimension ref="B6:F93"/>
+  <dimension ref="B6:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3088,987 +2492,1019 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:6">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="39" t="s">
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="39" t="s">
+    </row>
+    <row r="19" spans="2:6" ht="15.75">
+      <c r="B19" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="39" t="s">
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="D21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="15.75">
+      <c r="B35" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="15.75">
+      <c r="B49" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="15.75">
+      <c r="B62" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="39" t="s">
+      <c r="C65" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="15.75">
+      <c r="B73" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" ht="15.75">
+      <c r="B84" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="39" t="s">
+      <c r="C87" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="39" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39" t="s">
+      <c r="C88" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F88" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="15.75">
-      <c r="B19" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="41" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="41" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="41" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="15.75">
-      <c r="B33" s="43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" s="40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" s="41" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" s="42" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="D41" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="F42" s="41" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="15.75">
-      <c r="B47" s="43" t="s">
+    <row r="89" spans="2:6">
+      <c r="B89" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="B91" s="9" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="F48" s="40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="F49" s="41" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="E50" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="F50" s="42" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E53" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="F53" s="41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="C55" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="D55" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="C56" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="D57" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" ht="15.75">
-      <c r="B60" s="43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C61" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D61" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E61" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="F61" s="40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D62" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E62" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="F62" s="41" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="D63" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="E63" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="F63" s="42" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="C64" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="D64" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="C65" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="D65" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6">
-      <c r="B66" s="41" t="s">
+      <c r="C91" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C66" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D66" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6">
-      <c r="B67" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="C67" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="D67" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E67" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="F67" s="41" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" ht="15.75">
-      <c r="B71" s="43" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6">
-      <c r="B72" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C72" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D72" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E72" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="F72" s="40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6">
-      <c r="B73" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C73" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E73" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="F73" s="41" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6">
-      <c r="B74" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="C74" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D74" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6">
-      <c r="B75" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C75" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="D75" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6">
-      <c r="B76" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="C76" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="D76" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6">
-      <c r="B77" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="C77" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="D77" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6">
-      <c r="B78" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="C78" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D78" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="E78" s="41"/>
-      <c r="F78" s="41" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" ht="15.75">
-      <c r="B82" s="43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6">
-      <c r="B83" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C83" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D83" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E83" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="F83" s="40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6">
-      <c r="B84" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="C84" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D84" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E84" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="F84" s="41" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6">
-      <c r="B85" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="C85" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="D85" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="E85" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="F85" s="42" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6">
-      <c r="B86" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="C86" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D86" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E86" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="F86" s="41" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6">
-      <c r="B87" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="C87" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="D87" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="E87" s="42"/>
-      <c r="F87" s="42" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6">
-      <c r="B88" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C88" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="D88" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E88" s="41"/>
-      <c r="F88" s="41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6">
-      <c r="B89" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="C89" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="D89" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E89" s="41"/>
-      <c r="F89" s="41" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" ht="15.75">
-      <c r="B93" s="43"/>
+    </row>
+    <row r="95" spans="2:6" ht="15.75">
+      <c r="B95" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F7:F15 F35:F42 F21:F24 F49:F57 F62:F67 F73:F78 F84:F89" xr:uid="{A41F0942-A849-4570-893E-9ACFB131E0EA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F7:F15 F37:F44 F21:F24 F51:F59 F64:F69 F75:F80 F86:F91" xr:uid="{A41F0942-A849-4570-893E-9ACFB131E0EA}">
       <formula1>"Process, Decision, Subprocess, Start, End, Document, Data, Database, External Data, On-page reference, Off-page reference, Custom 1, Custom 2, Custom 3, Custom 4"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Process Step ID" prompt="Enter a unique process step ID for each shape in the diagram." sqref="B6 B20 B34 B48 B61 B72 B83" xr:uid="{EAE8B26F-E063-4B4F-9C45-A140EB1451D0}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Process Step Description" prompt="Enter text for the process step that will appear in the shape." sqref="C6 C20 C34 C48 C61 C72 C83" xr:uid="{7A51F40B-F09D-4293-B0A3-A45D333A89C1}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Next Step ID" prompt="Enter the process step ID for the next step. Use commas to separate multiple next steps, such as &quot;P600,P700&quot;." sqref="D6 D20 D34 D48 D61 D72 D83" xr:uid="{8D4B56A0-F2E1-4C51-B8D3-7576045CC740}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Connector Label" prompt="If desired, label the connector to the next step. Use commas to separate multiple next steps, such as &quot;Yes,No&quot;." sqref="E6 E20 E34 E48 E61 E72 E83" xr:uid="{5FF1D0DD-CFD0-4C6B-9911-43BDC6F882DF}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Shape Type" prompt="Enter the type of shape you'd like each process step to use." sqref="F6 F20 F34 F48 F61 F72 F83" xr:uid="{A16885AB-0541-499C-9764-74CA76936868}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Process Step ID" prompt="Enter a unique process step ID for each shape in the diagram." sqref="B6 B20 B36 B50 B63 B74 B85" xr:uid="{EAE8B26F-E063-4B4F-9C45-A140EB1451D0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Process Step Description" prompt="Enter text for the process step that will appear in the shape." sqref="C6 C20 C36 C50 C63 C74 C85" xr:uid="{7A51F40B-F09D-4293-B0A3-A45D333A89C1}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Next Step ID" prompt="Enter the process step ID for the next step. Use commas to separate multiple next steps, such as &quot;P600,P700&quot;." sqref="D6 D20 D36 D50 D63 D74 D85" xr:uid="{8D4B56A0-F2E1-4C51-B8D3-7576045CC740}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Connector Label" prompt="If desired, label the connector to the next step. Use commas to separate multiple next steps, such as &quot;Yes,No&quot;." sqref="E6 E20 E36 E50 E63 E74 E85" xr:uid="{5FF1D0DD-CFD0-4C6B-9911-43BDC6F882DF}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Shape Type" prompt="Enter the type of shape you'd like each process step to use." sqref="F6 F20 F36 F50 F63 F74 F85" xr:uid="{A16885AB-0541-499C-9764-74CA76936868}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" orientation="landscape" r:id="rId1"/>
@@ -4080,538 +3516,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36287276-1A1B-174E-942F-85F8F1AB748F}">
-  <sheetPr>
-    <tabColor rgb="FF217346"/>
-  </sheetPr>
-  <dimension ref="A1:BN27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="59.42578125" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="59" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="58.7109375" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" customWidth="1"/>
-    <col min="11" max="11" width="75.140625" customWidth="1"/>
-    <col min="12" max="12" width="49.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:66">
-      <c r="A1" s="44"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="25"/>
-      <c r="BD1" s="25"/>
-      <c r="BE1" s="25"/>
-      <c r="BF1" s="25"/>
-      <c r="BG1" s="26"/>
-      <c r="BH1" s="26"/>
-      <c r="BI1" s="26"/>
-      <c r="BJ1" s="26"/>
-      <c r="BK1" s="26"/>
-      <c r="BL1" s="26"/>
-      <c r="BM1" s="26"/>
-      <c r="BN1" s="26"/>
-    </row>
-    <row r="2" spans="1:66" ht="40.5">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19"/>
-      <c r="AV2" s="19"/>
-      <c r="AW2" s="19"/>
-      <c r="AX2" s="19"/>
-      <c r="AY2" s="19"/>
-      <c r="AZ2" s="19"/>
-      <c r="BA2" s="19"/>
-      <c r="BB2" s="19"/>
-      <c r="BC2" s="19"/>
-      <c r="BD2" s="19"/>
-      <c r="BE2" s="19"/>
-      <c r="BF2" s="19"/>
-    </row>
-    <row r="3" spans="1:66" ht="30" customHeight="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="19"/>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="19"/>
-      <c r="BA3" s="19"/>
-      <c r="BB3" s="19"/>
-      <c r="BC3" s="19"/>
-      <c r="BD3" s="19"/>
-      <c r="BE3" s="19"/>
-      <c r="BF3" s="19"/>
-    </row>
-    <row r="19" spans="1:23" ht="38.25" customHeight="1">
-      <c r="G19" s="9"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="1:23" ht="38.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="L20" s="22"/>
-    </row>
-    <row r="21" spans="1:23" ht="40.5">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="99" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22" s="45"/>
-    </row>
-    <row r="23" spans="1:23" ht="15.75">
-      <c r="C23" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="K23" s="35"/>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-    </row>
-    <row r="25" spans="1:23" ht="27" customHeight="1">
-      <c r="C25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="C26" s="24"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="K21:K22"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C23" r:id="rId1" xr:uid="{F5886AA2-4A24-4A34-B5C1-8CC4D5D227BB}"/>
-    <hyperlink ref="K20" location="'Understanding Diagram Data'!A1" tooltip="Select to view Understanding Diagram Data worksheet" display="Understanding Diagram Data&gt;" xr:uid="{39AFB49A-BBFD-4D3C-8D86-B0EAC4EBA00C}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2">
-    <tabColor rgb="FF217346"/>
-  </sheetPr>
-  <dimension ref="A1:BU21"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:73" s="15" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="30"/>
-      <c r="AP1" s="30"/>
-      <c r="AQ1" s="30"/>
-      <c r="AR1" s="30"/>
-      <c r="AS1" s="30"/>
-      <c r="AT1" s="30"/>
-      <c r="AU1" s="30"/>
-      <c r="AV1" s="30"/>
-      <c r="AW1" s="30"/>
-      <c r="AX1" s="30"/>
-      <c r="AY1" s="30"/>
-      <c r="AZ1" s="30"/>
-      <c r="BA1" s="30"/>
-      <c r="BB1" s="30"/>
-      <c r="BC1" s="30"/>
-      <c r="BD1" s="30"/>
-      <c r="BE1" s="30"/>
-      <c r="BF1" s="30"/>
-      <c r="BG1" s="30"/>
-      <c r="BH1" s="30"/>
-      <c r="BI1" s="30"/>
-      <c r="BJ1" s="30"/>
-      <c r="BK1" s="30"/>
-      <c r="BL1" s="30"/>
-      <c r="BM1" s="30"/>
-      <c r="BN1" s="30"/>
-      <c r="BO1" s="30"/>
-      <c r="BP1" s="30"/>
-      <c r="BQ1" s="30"/>
-      <c r="BR1" s="30"/>
-      <c r="BS1" s="30"/>
-      <c r="BT1" s="30"/>
-      <c r="BU1" s="30"/>
-    </row>
-    <row r="2" spans="1:73" s="7" customFormat="1" ht="40.35" customHeight="1" thickTop="1">
-      <c r="B2" s="33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:73" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="B3" s="34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:73" ht="15" customHeight="1"/>
-    <row r="5" spans="1:73" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:73" ht="60" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:73" ht="17.25">
-      <c r="B7" s="10"/>
-    </row>
-    <row r="8" spans="1:73" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:73" ht="60" customHeight="1">
-      <c r="B9" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:73" ht="15.75">
-      <c r="B10" s="13"/>
-    </row>
-    <row r="11" spans="1:73" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:73" ht="99">
-      <c r="B12" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:73" ht="15.75">
-      <c r="B13" s="13"/>
-    </row>
-    <row r="14" spans="1:73" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:73" ht="82.5">
-      <c r="B15" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:73" ht="15.75">
-      <c r="B16" s="13"/>
-    </row>
-    <row r="17" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="82.5">
-      <c r="B18" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="15.75">
-      <c r="B19" s="13"/>
-    </row>
-    <row r="20" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="18"/>
-    </row>
-    <row r="21" spans="2:4" ht="102.75" customHeight="1">
-      <c r="B21" s="17"/>
-      <c r="D21" s="26"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B16"/>
@@ -4628,99 +3532,99 @@
   <sheetData>
     <row r="1" spans="1:2" ht="23.1" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="61.35" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" ht="65.099999999999994" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" ht="60.6" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" ht="59.1" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" ht="59.1" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" ht="57.6" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" ht="57" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" ht="53.85" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" ht="53.85" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" ht="50.85" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" ht="50.85" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" ht="47.1" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" ht="48" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" ht="51.6" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" ht="50.85" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4"/>
     </row>

--- a/Documentation/Data_Dictionary(Bike-Rental DBMS).xlsx
+++ b/Documentation/Data_Dictionary(Bike-Rental DBMS).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEA10FD-0165-4ADD-A67C-D4C80E055771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861C1E7D-1C83-451F-8214-940AEB64E914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -485,7 +488,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2477,11 +2480,11 @@
   </sheetPr>
   <dimension ref="B6:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
@@ -2491,7 +2494,7 @@
     <col min="6" max="6" width="98.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
@@ -2508,7 +2511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
@@ -2525,7 +2528,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
@@ -2542,7 +2545,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
@@ -2557,7 +2560,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
@@ -2572,7 +2575,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
@@ -2604,7 +2607,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>28</v>
       </c>
@@ -2619,7 +2622,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
@@ -2634,7 +2637,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>140</v>
       </c>
@@ -2649,12 +2652,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15.75">
+    <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
@@ -2671,7 +2674,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>47</v>
       </c>
@@ -2688,7 +2691,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>22</v>
       </c>
@@ -2705,7 +2708,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>48</v>
       </c>
@@ -2722,7 +2725,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>49</v>
       </c>
@@ -2737,7 +2740,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>50</v>
       </c>
@@ -2752,7 +2755,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>141</v>
       </c>
@@ -2769,7 +2772,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>143</v>
       </c>
@@ -2786,7 +2789,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>51</v>
       </c>
@@ -2801,7 +2804,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
         <v>129</v>
       </c>
@@ -2816,7 +2819,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>147</v>
       </c>
@@ -2831,12 +2834,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="15.75">
+    <row r="35" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>17</v>
       </c>
@@ -2853,7 +2856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
         <v>48</v>
       </c>
@@ -2870,7 +2873,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>56</v>
       </c>
@@ -2887,7 +2890,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>57</v>
       </c>
@@ -2902,7 +2905,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>58</v>
       </c>
@@ -2917,7 +2920,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
         <v>59</v>
       </c>
@@ -2932,7 +2935,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
         <v>64</v>
       </c>
@@ -2947,7 +2950,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="9" t="s">
         <v>60</v>
       </c>
@@ -2962,7 +2965,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
         <v>61</v>
       </c>
@@ -2979,12 +2982,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="15.75">
+    <row r="49" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>17</v>
       </c>
@@ -3001,7 +3004,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>66</v>
       </c>
@@ -3018,7 +3021,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>67</v>
       </c>
@@ -3035,7 +3038,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
         <v>24</v>
       </c>
@@ -3050,7 +3053,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>25</v>
       </c>
@@ -3065,7 +3068,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="2:6">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="9" t="s">
         <v>68</v>
       </c>
@@ -3082,7 +3085,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="2:6">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
         <v>27</v>
       </c>
@@ -3097,7 +3100,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="2:6">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
         <v>69</v>
       </c>
@@ -3112,7 +3115,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="2:6">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
         <v>70</v>
       </c>
@@ -3127,7 +3130,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="2:6">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="9" t="s">
         <v>61</v>
       </c>
@@ -3142,12 +3145,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="2:6" ht="15.75">
+    <row r="62" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="2:6">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
         <v>17</v>
       </c>
@@ -3164,7 +3167,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="2:6">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="9" t="s">
         <v>80</v>
       </c>
@@ -3181,7 +3184,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>47</v>
       </c>
@@ -3198,7 +3201,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
         <v>81</v>
       </c>
@@ -3213,7 +3216,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>82</v>
       </c>
@@ -3228,7 +3231,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="2:6">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
         <v>83</v>
       </c>
@@ -3243,7 +3246,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="9" t="s">
         <v>84</v>
       </c>
@@ -3260,12 +3263,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="15.75">
+    <row r="73" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B73" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="2:6">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
         <v>17</v>
       </c>
@@ -3282,7 +3285,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="2:6">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="9" t="s">
         <v>61</v>
       </c>
@@ -3299,7 +3302,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="2:6">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
         <v>91</v>
       </c>
@@ -3314,7 +3317,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="2:6">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
         <v>92</v>
       </c>
@@ -3329,7 +3332,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="2:6">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>93</v>
       </c>
@@ -3344,7 +3347,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="2:6">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="9" t="s">
         <v>94</v>
       </c>
@@ -3359,7 +3362,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="2:6">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="9" t="s">
         <v>95</v>
       </c>
@@ -3374,12 +3377,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="2:6" ht="15.75">
+    <row r="84" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B84" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="85" spans="2:6">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
         <v>17</v>
       </c>
@@ -3396,7 +3399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="2:6">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="9" t="s">
         <v>136</v>
       </c>
@@ -3413,7 +3416,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="2:6">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>48</v>
       </c>
@@ -3430,7 +3433,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="2:6">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
         <v>66</v>
       </c>
@@ -3447,7 +3450,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="2:6">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
         <v>104</v>
       </c>
@@ -3462,7 +3465,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="2:6">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="9" t="s">
         <v>21</v>
       </c>
@@ -3477,7 +3480,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="2:6">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="9" t="s">
         <v>105</v>
       </c>
@@ -3492,7 +3495,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="95" spans="2:6" ht="15.75">
+    <row r="95" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B95" s="11"/>
     </row>
   </sheetData>
@@ -3524,13 +3527,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.1" customHeight="1">
+    <row r="1" spans="1:2" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3538,91 +3541,91 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="61.35" customHeight="1">
+    <row r="2" spans="1:2" ht="61.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" ht="65.099999999999994" customHeight="1">
+    <row r="3" spans="1:2" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" ht="60.6" customHeight="1">
+    <row r="4" spans="1:2" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" ht="59.1" customHeight="1">
+    <row r="5" spans="1:2" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" ht="59.1" customHeight="1">
+    <row r="6" spans="1:2" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="57.6" customHeight="1">
+    <row r="7" spans="1:2" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" ht="57" customHeight="1">
+    <row r="8" spans="1:2" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" ht="53.85" customHeight="1">
+    <row r="9" spans="1:2" ht="53.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" ht="53.85" customHeight="1">
+    <row r="10" spans="1:2" ht="53.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" ht="50.85" customHeight="1">
+    <row r="11" spans="1:2" ht="50.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="50.85" customHeight="1">
+    <row r="12" spans="1:2" ht="50.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" ht="47.1" customHeight="1">
+    <row r="13" spans="1:2" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" ht="48" customHeight="1">
+    <row r="14" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" ht="51.6" customHeight="1">
+    <row r="15" spans="1:2" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" ht="50.85" customHeight="1">
+    <row r="16" spans="1:2" ht="50.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
